--- a/results/mp/logistic/corona/confidence/126/desired-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="148">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,180 +40,183 @@
     <t>name</t>
   </si>
   <si>
-    <t>warned</t>
+    <t>killed</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>disgusting</t>
   </si>
   <si>
     <t>kill</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>infected</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>slash</t>
+    <t>warning</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>disgusting</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>worse</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>cut</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -223,199 +226,238 @@
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>support</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
     <t>wish</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>god</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>shares</t>
   </si>
   <si>
     <t>team</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>kind</t>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>super</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>dear</t>
   </si>
   <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>?</t>
+    <t>your</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>for</t>
   </si>
   <si>
     <t>corona</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -773,7 +815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -781,10 +823,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -863,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -892,13 +934,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9473684210526315</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -910,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4">
         <v>0.95</v>
@@ -942,13 +984,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -960,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -984,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -992,13 +1034,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9117647058823529</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1010,10 +1052,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6">
         <v>0.9444444444444444</v>
@@ -1042,13 +1084,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8947368421052632</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1060,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.9375</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1084,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1092,13 +1134,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8918918918918919</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1110,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K8">
-        <v>0.9375</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1145,10 +1187,10 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1160,19 +1202,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K9">
-        <v>0.9322033898305084</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1184,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1192,13 +1234,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8595890410958904</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>251</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>251</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1210,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K10">
         <v>0.9230769230769231</v>
@@ -1242,13 +1284,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8275862068965517</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1260,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K11">
-        <v>0.9138381201044387</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L11">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1284,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1292,13 +1334,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8260869565217391</v>
+        <v>0.8561643835616438</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1310,19 +1352,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K12">
         <v>0.9090909090909091</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1334,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1342,13 +1384,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8125</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1363,16 +1405,16 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K13">
-        <v>0.9069767441860465</v>
+        <v>0.9033942558746736</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>346</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>346</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1384,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1392,13 +1434,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8055555555555556</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1410,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14">
         <v>0.8947368421052632</v>
@@ -1442,7 +1484,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C15">
         <v>24</v>
@@ -1460,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K15">
-        <v>0.8936170212765957</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1484,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1513,16 +1555,16 @@
         <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16">
-        <v>0.890625</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L16">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1534,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1542,13 +1584,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7647058823529411</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1560,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K17">
-        <v>0.8888888888888888</v>
+        <v>0.8875</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1584,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1592,13 +1634,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.75</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1610,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K18">
-        <v>0.8839285714285714</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L18">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M18">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1634,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1642,13 +1684,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7391304347826086</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1660,19 +1702,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K19">
-        <v>0.8802816901408451</v>
+        <v>0.875</v>
       </c>
       <c r="L19">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="M19">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1684,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1692,13 +1734,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7391304347826086</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1710,31 +1752,31 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20">
+        <v>0.8723404255319149</v>
+      </c>
+      <c r="L20">
+        <v>41</v>
+      </c>
+      <c r="M20">
+        <v>41</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>6</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K20">
-        <v>0.875</v>
-      </c>
-      <c r="L20">
-        <v>140</v>
-      </c>
-      <c r="M20">
-        <v>140</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1742,13 +1784,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7368421052631579</v>
+        <v>0.72</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1760,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21">
         <v>0.8679245283018868</v>
@@ -1792,13 +1834,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1810,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K22">
-        <v>0.8666666666666667</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1834,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1863,16 +1905,16 @@
         <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K23">
-        <v>0.8620689655172413</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L23">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1884,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1892,13 +1934,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6862745098039216</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C24">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1910,19 +1952,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24">
-        <v>0.8421052631578947</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1934,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1942,13 +1984,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6842105263157895</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1960,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K25">
-        <v>0.8414634146341463</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L25">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1984,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1992,13 +2034,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6842105263157895</v>
+        <v>0.6821705426356589</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>352</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>352</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2010,31 +2052,31 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>164</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L26">
+        <v>21</v>
+      </c>
+      <c r="M26">
+        <v>21</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>6</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K26">
-        <v>0.8253968253968254</v>
-      </c>
-      <c r="L26">
-        <v>52</v>
-      </c>
-      <c r="M26">
-        <v>52</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2042,13 +2084,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6772486772486772</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C27">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="D27">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2060,31 +2102,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27">
-        <v>0.8235294117647058</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L27">
+        <v>49</v>
+      </c>
+      <c r="M27">
+        <v>49</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>14</v>
-      </c>
-      <c r="M27">
-        <v>14</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2092,13 +2134,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6744186046511628</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C28">
-        <v>348</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>348</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2110,19 +2152,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K28">
-        <v>0.7948717948717948</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2134,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2145,10 +2187,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2160,19 +2202,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K29">
-        <v>0.7916666666666666</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2184,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2192,13 +2234,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6610169491525424</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C30">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2210,19 +2252,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K30">
-        <v>0.7857142857142857</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2234,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2242,13 +2284,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.65625</v>
+        <v>0.656084656084656</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2260,19 +2302,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K31">
-        <v>0.7777777777777778</v>
+        <v>0.76</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2284,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2292,13 +2334,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6410256410256411</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2310,19 +2352,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K32">
         <v>0.75</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2334,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2342,13 +2384,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6296296296296297</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2363,16 +2405,16 @@
         <v>10</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K33">
-        <v>0.75</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2392,13 +2434,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6129032258064516</v>
+        <v>0.6040268456375839</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2410,19 +2452,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K34">
-        <v>0.7352941176470589</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L34">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2434,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2463,16 +2505,16 @@
         <v>15</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K35">
-        <v>0.7307692307692307</v>
+        <v>0.7322033898305085</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2484,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2492,13 +2534,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5909090909090909</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C36">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="D36">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2510,19 +2552,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K36">
-        <v>0.72</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2534,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2542,13 +2584,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5906040268456376</v>
+        <v>0.5625</v>
       </c>
       <c r="C37">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2560,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K37">
-        <v>0.7152542372881356</v>
+        <v>0.725</v>
       </c>
       <c r="L37">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2584,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2592,13 +2634,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5818181818181818</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C38">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D38">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2610,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K38">
         <v>0.7142857142857143</v>
@@ -2642,13 +2684,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5769230769230769</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2660,19 +2702,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K39">
-        <v>0.7083333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2684,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2692,13 +2734,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5694444444444444</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C40">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="D40">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2710,19 +2752,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K40">
-        <v>0.7</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L40">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2734,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2742,13 +2784,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5641025641025641</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2760,19 +2802,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K41">
-        <v>0.698744769874477</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L41">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="M41">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2784,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2792,38 +2834,38 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5483870967741935</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>16</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K42">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L42">
         <v>17</v>
       </c>
-      <c r="D42">
+      <c r="M42">
         <v>17</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>14</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K42">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="L42">
-        <v>24</v>
-      </c>
-      <c r="M42">
-        <v>24</v>
-      </c>
       <c r="N42">
         <v>1</v>
       </c>
@@ -2834,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2842,49 +2884,49 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.5384615384615384</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C43">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>13</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>14</v>
       </c>
-      <c r="D43">
-        <v>14</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>12</v>
-      </c>
       <c r="J43" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K43">
-        <v>0.6818181818181818</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L43">
+        <v>36</v>
+      </c>
+      <c r="M43">
+        <v>36</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>15</v>
-      </c>
-      <c r="M43">
-        <v>15</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2892,13 +2934,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.5</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C44">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2910,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K44">
-        <v>0.6666666666666666</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2934,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2942,13 +2984,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C45">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2960,19 +3002,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K45">
-        <v>0.6666666666666666</v>
+        <v>0.694560669456067</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2984,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2992,13 +3034,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4909090909090909</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C46">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D46">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3010,19 +3052,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K46">
-        <v>0.6629213483146067</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L46">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M46">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3034,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3042,13 +3084,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4516129032258064</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C47">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D47">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3060,19 +3102,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K47">
-        <v>0.6615384615384615</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L47">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="M47">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3084,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3092,13 +3134,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4193548387096774</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C48">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D48">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3110,19 +3152,19 @@
         <v>0</v>
       </c>
       <c r="H48">
+        <v>60</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K48">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L48">
         <v>18</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K48">
-        <v>0.6595744680851063</v>
-      </c>
-      <c r="L48">
-        <v>62</v>
-      </c>
       <c r="M48">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3134,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3142,13 +3184,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3666666666666666</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C49">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D49">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3160,19 +3202,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K49">
-        <v>0.6571428571428571</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L49">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M49">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3184,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3192,13 +3234,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3466666666666667</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="C50">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D50">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3210,19 +3252,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K50">
-        <v>0.6444444444444445</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L50">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M50">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3234,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3242,13 +3284,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3375</v>
+        <v>0.2896825396825397</v>
       </c>
       <c r="C51">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D51">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3260,19 +3302,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K51">
-        <v>0.6296296296296297</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L51">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3284,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3292,13 +3334,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.325</v>
+        <v>0.25</v>
       </c>
       <c r="C52">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D52">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3310,19 +3352,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K52">
-        <v>0.6274509803921569</v>
+        <v>0.625</v>
       </c>
       <c r="L52">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3334,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3342,13 +3384,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2987012987012987</v>
+        <v>0.1849865951742627</v>
       </c>
       <c r="C53">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D53">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3360,19 +3402,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>54</v>
+        <v>304</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K53">
-        <v>0.625</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3384,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3392,13 +3434,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2936507936507937</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="C54">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="D54">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3410,19 +3452,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>178</v>
+        <v>277</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K54">
-        <v>0.5833333333333334</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3434,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3442,37 +3484,37 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2549019607843137</v>
+        <v>0.01323007421748951</v>
       </c>
       <c r="C55">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D55">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>38</v>
+        <v>3058</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K55">
-        <v>0.5714285714285714</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3484,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3492,13 +3534,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1715817694369973</v>
+        <v>0.01291989664082687</v>
       </c>
       <c r="C56">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3510,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>309</v>
+        <v>1146</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K56">
         <v>0.5652173913043478</v>
@@ -3542,37 +3584,37 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.005332715047530721</v>
+        <v>0.01122019635343618</v>
       </c>
       <c r="C57">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D57">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E57">
-        <v>0.39</v>
+        <v>0.14</v>
       </c>
       <c r="F57">
-        <v>0.61</v>
+        <v>0.86</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>4290</v>
+        <v>2115</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K57">
-        <v>0.5652173913043478</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3584,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3592,37 +3634,37 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004829362524146813</v>
+        <v>0.008431703204047217</v>
       </c>
       <c r="C58">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E58">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="F58">
-        <v>0.9399999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>3091</v>
+        <v>2352</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K58">
-        <v>0.547945205479452</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="L58">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3634,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3642,37 +3684,37 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003302894890227317</v>
+        <v>0.004624045034177724</v>
       </c>
       <c r="C59">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D59">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E59">
+        <v>0.49</v>
+      </c>
+      <c r="F59">
         <v>0.51</v>
       </c>
-      <c r="F59">
-        <v>0.49</v>
-      </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>5130</v>
+        <v>4951</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K59">
-        <v>0.5161290322580645</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="L59">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M59">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3684,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3692,63 +3734,87 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.00321285140562249</v>
+        <v>0.003695779031316865</v>
       </c>
       <c r="C60">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>43</v>
+      </c>
+      <c r="E60">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F60">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>5122</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K60">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L60">
+        <v>13</v>
+      </c>
+      <c r="M60">
+        <v>13</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.003016941285681132</v>
+      </c>
+      <c r="C61">
+        <v>13</v>
+      </c>
+      <c r="D61">
+        <v>32</v>
+      </c>
+      <c r="E61">
+        <v>0.59</v>
+      </c>
+      <c r="F61">
+        <v>0.41</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>4296</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K61">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="L61">
         <v>16</v>
       </c>
-      <c r="D60">
-        <v>32</v>
-      </c>
-      <c r="E60">
-        <v>0.5</v>
-      </c>
-      <c r="F60">
-        <v>0.5</v>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>4964</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K60">
-        <v>0.5087719298245614</v>
-      </c>
-      <c r="L60">
-        <v>29</v>
-      </c>
-      <c r="M60">
-        <v>29</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="J61" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K61">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="L61">
-        <v>20</v>
-      </c>
       <c r="M61">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3760,21 +3826,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K62">
-        <v>0.4411764705882353</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L62">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3786,21 +3852,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K63">
-        <v>0.4262295081967213</v>
+        <v>0.484375</v>
       </c>
       <c r="L63">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M63">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3812,21 +3878,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K64">
-        <v>0.4067796610169492</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L64">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M64">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3838,21 +3904,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K65">
-        <v>0.3974358974358974</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L65">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M65">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3864,21 +3930,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K66">
-        <v>0.296875</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="L66">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M66">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3890,163 +3956,501 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K67">
-        <v>0.01087866108786611</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L67">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M67">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N67">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>1182</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K68">
-        <v>0.007109995817649519</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="L68">
         <v>17</v>
       </c>
       <c r="M68">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N68">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>2374</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K69">
-        <v>0.004381846635367762</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L69">
         <v>14</v>
       </c>
       <c r="M69">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N69">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>3181</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="K70">
-        <v>0.003496503496503497</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="L70">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M70">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N70">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>5130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="K71">
-        <v>0.003484320557491289</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="L71">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M71">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="N71">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>4290</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K72">
+        <v>0.1048951048951049</v>
+      </c>
+      <c r="L72">
+        <v>15</v>
+      </c>
+      <c r="M72">
+        <v>15</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K73">
+        <v>0.0972972972972973</v>
+      </c>
+      <c r="L73">
+        <v>18</v>
+      </c>
+      <c r="M73">
+        <v>18</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K74">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="L74">
+        <v>14</v>
+      </c>
+      <c r="M74">
+        <v>14</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K75">
+        <v>0.04011461318051576</v>
+      </c>
+      <c r="L75">
+        <v>14</v>
+      </c>
+      <c r="M75">
+        <v>14</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K76">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="L76">
+        <v>16</v>
+      </c>
+      <c r="M76">
+        <v>16</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K77">
+        <v>0.0350584307178631</v>
+      </c>
+      <c r="L77">
+        <v>42</v>
+      </c>
+      <c r="M77">
+        <v>44</v>
+      </c>
+      <c r="N77">
+        <v>0.95</v>
+      </c>
+      <c r="O77">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K78">
+        <v>0.03473491773308958</v>
+      </c>
+      <c r="L78">
+        <v>19</v>
+      </c>
+      <c r="M78">
+        <v>19</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K79">
+        <v>0.01161483701760959</v>
+      </c>
+      <c r="L79">
+        <v>31</v>
+      </c>
+      <c r="M79">
+        <v>35</v>
+      </c>
+      <c r="N79">
+        <v>0.89</v>
+      </c>
+      <c r="O79">
+        <v>0.11</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K80">
+        <v>0.009463722397476341</v>
+      </c>
+      <c r="L80">
+        <v>15</v>
+      </c>
+      <c r="M80">
+        <v>24</v>
+      </c>
+      <c r="N80">
+        <v>0.62</v>
+      </c>
+      <c r="O80">
+        <v>0.38</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K81">
+        <v>0.009076682316118936</v>
+      </c>
+      <c r="L81">
+        <v>29</v>
+      </c>
+      <c r="M81">
+        <v>35</v>
+      </c>
+      <c r="N81">
+        <v>0.83</v>
+      </c>
+      <c r="O81">
+        <v>0.17</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K82">
+        <v>0.005754212905877518</v>
+      </c>
+      <c r="L82">
+        <v>14</v>
+      </c>
+      <c r="M82">
+        <v>26</v>
+      </c>
+      <c r="N82">
+        <v>0.54</v>
+      </c>
+      <c r="O82">
+        <v>0.46</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K72">
-        <v>0.00321285140562249</v>
-      </c>
-      <c r="L72">
-        <v>16</v>
-      </c>
-      <c r="M72">
+      <c r="K83">
+        <v>0.004663816556548776</v>
+      </c>
+      <c r="L83">
+        <v>24</v>
+      </c>
+      <c r="M83">
+        <v>43</v>
+      </c>
+      <c r="N83">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O83">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K84">
+        <v>0.004423889000603257</v>
+      </c>
+      <c r="L84">
+        <v>22</v>
+      </c>
+      <c r="M84">
+        <v>45</v>
+      </c>
+      <c r="N84">
+        <v>0.49</v>
+      </c>
+      <c r="O84">
+        <v>0.51</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K85">
+        <v>0.00440324449594438</v>
+      </c>
+      <c r="L85">
+        <v>19</v>
+      </c>
+      <c r="M85">
         <v>32</v>
       </c>
-      <c r="N72">
-        <v>0.5</v>
-      </c>
-      <c r="O72">
-        <v>0.5</v>
-      </c>
-      <c r="P72" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>4964</v>
+      <c r="N85">
+        <v>0.59</v>
+      </c>
+      <c r="O85">
+        <v>0.41</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>4296</v>
       </c>
     </row>
   </sheetData>
